--- a/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4E3EF36-E01A-4BCF-8C18-33AA05C44E7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7368" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Registration" sheetId="2" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Resident Services" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Resident Services'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Resident Services'!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="152510"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -206,11 +207,14 @@
   <si>
     <t>Reigstration configmration to additional email IDs &amp; phone numbers</t>
   </si>
+  <si>
+    <t>Impact if Updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -572,6 +576,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,14 +588,129 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1336,9 +1458,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1353,42 +1475,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A2:E26" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:E26"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="S.No" dataDxfId="24"/>
-    <tableColumn id="2" name="Process Name" dataDxfId="23"/>
-    <tableColumn id="4" name="Default" dataDxfId="22"/>
-    <tableColumn id="7" name="Mindtree Comments" dataDxfId="21"/>
-    <tableColumn id="6" name="Customer Comments" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A2:F26" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A2:F26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S.No" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Process Name" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Default" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mindtree Comments" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{4064FB18-B8B4-4F88-B59E-183178154059}" name="Customer Comments" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Impact if Updated" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2235" displayName="Table2235" ref="A2:E14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A2:E14"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="S.No" dataDxfId="14"/>
-    <tableColumn id="2" name="Process Name" dataDxfId="13"/>
-    <tableColumn id="4" name="Default" dataDxfId="12"/>
-    <tableColumn id="7" name="Mindtree Comments" dataDxfId="11"/>
-    <tableColumn id="6" name="Customer Comments" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2235" displayName="Table2235" ref="A2:F14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A2:F14" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Process Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Mindtree Comments" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2BF27CC4-C302-46CE-8CD9-2D049CD15DFC}" name="Customer Comments" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Impact if Updated" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2234" displayName="Table2234" ref="A2:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A2:E25"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="S.No" dataDxfId="4"/>
-    <tableColumn id="2" name="Process Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Default" dataDxfId="2"/>
-    <tableColumn id="7" name="Mindtree Comments" dataDxfId="1"/>
-    <tableColumn id="6" name="Customer Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2234" displayName="Table2234" ref="A2:F25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A2:F25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Process Name" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Mindtree Comments" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B1F48FDA-B6DD-46D5-8D35-13386C811A31}" name="Customer Comments" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Impact if Updated" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1656,33 +1781,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="39" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1698,8 +1826,11 @@
       <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1713,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1741,8 +1872,9 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1756,7 +1888,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1784,8 +1916,9 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1799,7 +1932,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1811,8 +1944,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1826,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1838,14 +1972,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1873,14 +2008,15 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1908,14 +2044,15 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1943,14 +2080,15 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1978,14 +2116,15 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2013,14 +2152,15 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2048,14 +2188,15 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2083,14 +2224,15 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2118,14 +2260,15 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2153,14 +2296,15 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2188,14 +2332,15 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2223,14 +2368,15 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2258,14 +2404,15 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2293,14 +2440,15 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2328,14 +2476,15 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2363,14 +2512,15 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2398,38 +2548,43 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2440,33 +2595,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="39" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2482,8 +2640,11 @@
       <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="F2" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2497,7 +2658,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2509,8 +2670,9 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2524,7 +2686,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2536,8 +2698,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -2550,8 +2713,8 @@
       <c r="D5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2563,8 +2726,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2578,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2590,8 +2754,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -2604,8 +2769,8 @@
       <c r="D7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2617,8 +2782,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2631,8 +2797,8 @@
       <c r="D8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2644,8 +2810,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>10</v>
       </c>
@@ -2659,7 +2826,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2671,8 +2838,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>16</v>
       </c>
@@ -2686,7 +2854,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2698,8 +2866,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>17</v>
       </c>
@@ -2713,8 +2882,9 @@
         <v>35</v>
       </c>
       <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>18</v>
       </c>
@@ -2728,8 +2898,9 @@
         <v>35</v>
       </c>
       <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>19</v>
       </c>
@@ -2742,24 +2913,26 @@
       <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E13" s="41"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>20</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2770,35 +2943,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:E1"/>
+      <selection pane="bottomRight" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="39" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2814,8 +2990,11 @@
       <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2829,7 +3008,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2841,8 +3020,9 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2856,7 +3036,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2868,8 +3048,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2883,7 +3064,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2895,8 +3076,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2910,7 +3092,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2922,14 +3104,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2941,14 +3124,15 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2960,14 +3144,15 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2979,14 +3164,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2998,14 +3184,15 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3017,14 +3204,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3036,14 +3224,15 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3055,14 +3244,15 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3074,14 +3264,15 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3093,14 +3284,15 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3112,14 +3304,15 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3131,14 +3324,15 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3150,14 +3344,15 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3169,14 +3364,15 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3188,14 +3384,15 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3207,38 +3404,43 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3249,34 +3451,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="76.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="29.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="24.140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="29.5703125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3292,8 +3494,11 @@
       <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3305,8 +3510,9 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -3318,8 +3524,9 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -3331,8 +3538,9 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -3343,8 +3551,8 @@
         <v>6</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3355,9 +3563,10 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -3369,8 +3578,9 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -3382,8 +3592,9 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -3395,8 +3606,9 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -3408,25 +3620,28 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3434,6 +3649,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -3457,15 +3681,6 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3676,6 +3891,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3688,14 +3911,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4E3EF36-E01A-4BCF-8C18-33AA05C44E7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E7DBB-B725-4DB5-BAAF-AA11D395D2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Registration" sheetId="2" r:id="rId1"/>
-    <sheet name="Registration" sheetId="8" r:id="rId2"/>
+    <sheet name="Registration" sheetId="10" r:id="rId2"/>
     <sheet name="Registration Processor" sheetId="7" r:id="rId3"/>
     <sheet name="Resident Services" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Resident Services'!$A$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="152510"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -68,6 +68,148 @@
     <t>Appointment Booking</t>
   </si>
   <si>
+    <t>Facilitate Translation</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Facilitate Transliteration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>Registration Processor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID-Authentication</t>
+    </r>
+  </si>
+  <si>
+    <t>VID Generation</t>
+  </si>
+  <si>
+    <t>Static PIN Generation</t>
+  </si>
+  <si>
+    <t>Static PIN Update</t>
+  </si>
+  <si>
+    <t>Consent Management - Lock/Un-lock Biometrics</t>
+  </si>
+  <si>
+    <t>Consent Management - Allow e-KYC sharing</t>
+  </si>
+  <si>
+    <t>Local Paperless Local e-KYC</t>
+  </si>
+  <si>
+    <t>Authentication History View</t>
+  </si>
+  <si>
+    <t>Track UIN</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should not be configurable. By default MOSIP will support translation and the UX will also support the same. SI can opt to not have this feature by modifying the code. 
+Providing the feasibility to turn on/off this feature will lead to the UI becoming dynamic and will impact the wireframes which are already approved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should not be configurable. By default MOSIP will support transliteration and the UX will also support the same. SI can opt to not have this feature by modifying the code. 
+Providing the feasibility to turn on/off this feature will lead to the UI becoming dynamic and will impact the wireframes which are already approved. </t>
+  </si>
+  <si>
+    <t>Impact if Updated</t>
+  </si>
+  <si>
+    <t>Stage Name</t>
+  </si>
+  <si>
+    <t>Packet Receiver Stage</t>
+  </si>
+  <si>
+    <t>Virus Scanner Stage</t>
+  </si>
+  <si>
+    <t>Packet Uploader Stage</t>
+  </si>
+  <si>
+    <t>Packet Validator Stage</t>
+  </si>
+  <si>
+    <t>Packet Connector Stage</t>
+  </si>
+  <si>
+    <t>OSI Validator Stage</t>
+  </si>
+  <si>
+    <t>Demo-Dedupe Stage</t>
+  </si>
+  <si>
+    <t>Bio-Dedupe Stage</t>
+  </si>
+  <si>
+    <t>Manual Verification Stage</t>
+  </si>
+  <si>
+    <t>UIN Genreator Stage</t>
+  </si>
+  <si>
+    <t>Printing Stage</t>
+  </si>
+  <si>
+    <t>Notification Stage</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Not Configurable, because this is the First Stage which receives all the Packets</t>
+  </si>
+  <si>
+    <t>Not Configurable, because here packet decryption is done after reciving the packet.</t>
+  </si>
+  <si>
+    <t>Not Configurable, because this stage uploads the packet to Archival and Packet Store.</t>
+  </si>
+  <si>
+    <t>Not Configurable, because this stage connects Registration Processor with Private and Public Network</t>
+  </si>
+  <si>
+    <t>Configurable using Camel Bridge</t>
+  </si>
+  <si>
+    <t>Not Configurable as Purpose of MOSIP goes down</t>
+  </si>
+  <si>
+    <t>Need to Restart Camel Bridge for Workflow Change</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Processes: </t>
     </r>
@@ -84,138 +226,128 @@
     </r>
   </si>
   <si>
-    <t>Facilitate Translation</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Facilitate Transliteration</t>
+    <t>Configs in Config Server</t>
+  </si>
+  <si>
+    <t>Not applicable.</t>
+  </si>
+  <si>
+    <t>Geo-tagged location verification</t>
+  </si>
+  <si>
+    <t>Biometrics - Finger Print</t>
+  </si>
+  <si>
+    <t>mosip.registration.FINGERPRINT_DISABLE_FLAG</t>
+  </si>
+  <si>
+    <t>Biometrics - Iris</t>
+  </si>
+  <si>
+    <t>mosip.registration.IRIS_DISABLE_FLAG</t>
+  </si>
+  <si>
+    <t>Face Capture</t>
+  </si>
+  <si>
+    <t>mosip.registration.FACE_DISABLE_FLAG</t>
   </si>
   <si>
     <t>Document upload/Scan</t>
   </si>
   <si>
+    <t>mosip.registration.DOCUMENT_DISABLE_FLAG</t>
+  </si>
+  <si>
     <t>Registration correction</t>
   </si>
   <si>
+    <t>Descoped.</t>
+  </si>
+  <si>
+    <t>UIN Update</t>
+  </si>
+  <si>
+    <t>If ON - UIN Update feature will be available on the registration client.
+If OFF - will not be available.</t>
+  </si>
+  <si>
     <t>Lost UIN</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Processes: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>Registration Processor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Processes: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>ID-Authentication</t>
-    </r>
-  </si>
-  <si>
-    <t>VID Generation</t>
-  </si>
-  <si>
-    <t>Static PIN Generation</t>
-  </si>
-  <si>
-    <t>Static PIN Update</t>
-  </si>
-  <si>
-    <t>Biometrics - Finger Print</t>
-  </si>
-  <si>
-    <t>Biometrics - Iris</t>
-  </si>
-  <si>
-    <t>Face Capture</t>
-  </si>
-  <si>
-    <t>UIN Update</t>
-  </si>
-  <si>
-    <t>Biometrics - Finger print dedupe</t>
-  </si>
-  <si>
-    <t>Biometrics - Iris dedupe</t>
-  </si>
-  <si>
-    <t>Demographic data dedupe</t>
-  </si>
-  <si>
-    <t>QC Process</t>
-  </si>
-  <si>
-    <t>Geo-tagged location verification</t>
-  </si>
-  <si>
-    <t>Consent Management - Lock/Un-lock Biometrics</t>
-  </si>
-  <si>
-    <t>Consent Management - Allow e-KYC sharing</t>
-  </si>
-  <si>
-    <t>Local Paperless Local e-KYC</t>
-  </si>
-  <si>
-    <t>Authentication History View</t>
-  </si>
-  <si>
-    <t>Track UIN</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This should not be configurable. By default MOSIP will support translation and the UX will also support the same. SI can opt to not have this feature by modifying the code. 
-Providing the feasibility to turn on/off this feature will lead to the UI becoming dynamic and will impact the wireframes which are already approved. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This should not be configurable. By default MOSIP will support transliteration and the UX will also support the same. SI can opt to not have this feature by modifying the code. 
-Providing the feasibility to turn on/off this feature will lead to the UI becoming dynamic and will impact the wireframes which are already approved. </t>
-  </si>
-  <si>
-    <t>OK - But the parameters of algorithm is not configurable as confirmed with Shrikant</t>
-  </si>
-  <si>
     <t>EoD Process</t>
   </si>
   <si>
-    <t>Reigstration configmration to additional email IDs &amp; phone numbers</t>
-  </si>
-  <si>
-    <t>Impact if Updated</t>
+    <t>Reigstration confirmation to additional email IDs &amp; phone numbers</t>
+  </si>
+  <si>
+    <t>mosip.registration.SEND_NOTIFICATION_DISABLE_FLAG</t>
+  </si>
+  <si>
+    <t>Supervisor verification required for exceptions</t>
+  </si>
+  <si>
+    <t>mosip.registration.SUPERVISOR_AUTHENTICATION_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>If ON - The Individual will be shown the Upload Documents screen where he/she has to upload documents
+If OFF - The Document upload screen will not be displayed.
+1. The stages of the Applications is displayed in the screen in form of a stepper. This needs to be altered based on the Switch on/off of stages.
+2. In case of document upload switch off, the Preview page should not show the Document information.
+3. The Frequency of Switch on/off needs to be known as there needs to be business rules concerning the changes. If today the Appointment Booking is switched on and tomorrow it is switched off , there will be data inconsistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If ON - The Individual will be shown the Appointment Booking screens where he/she has to Search for Registration center, get availability and Book for Appointment
+If OFF - The Appointment Booking screens will not be displayed.
+1. The Statuses of Pre-Registration ID can be in ‘Pending Appointment’, ‘Booked’ and ‘Expired. If the Appointment Booking stage is switched off will the same statuses remain, Booked status will be confusing for an Individual.
+2. The stages of the Applications is displayed in the screen in form of a stepper. This needs to be altered based on the Switch on/off of stages.
+3. The Frequency of Switch on/off needs to be known as there needs to be business rules concerning the changes. If today the Appointment Booking is switched on and tomorrow it is switched off , there will be data inconsistency
+4. In The Dashboard, there are Action Buttons ‘Book/Modify Appointment’, there are information on Appointment in the Pre-Registration cards. 
+5. The Cancel Appointment option needs to be removed if the Appointment Booking stage is switched off.
+6. The Acknowledgement page majorly has Appointment details, on switch off of the Appointment booking the Acknowledgment page will need to be modified.
+7. In the Pre-Reg screens which has specific text related to Book Appointment will need to be removed in case of Switch off.
+8. There are static pages like ‘ getting started’ and ‘FAQs’ which needs to be modified based on the Modularity.
+9. Registration Client will have to be online all the time( if the Appointment Booking is not there , RC cannot pull the Pre-registration data mapped to that Registration Center, and also we cannot allow a RC to pull the entire Pre-Registration data). RC can get to know the Pre-Registration details only when the Person is  present in the center and provides his PRID.
+10. If the Pre-Registration is switched off, the data sync and the reverse data sync should be switched off at Reg. client and Reg. processor respectively.
+</t>
+  </si>
+  <si>
+    <t>If ON - supervisor will be required to authenticate exception registrations before submission.
+If OFF - supervisor authentication will be skipped and therefore operator authentication is the last step before RID generation.</t>
+  </si>
+  <si>
+    <t>If ON - all registrations and UIN updates require EoD aproval.
+If OFF - do not require approval. Therefore upon creation registrations are ready to sync. 
+However all registrations created earlier when ON will continue to require EoD approval.</t>
+  </si>
+  <si>
+    <t>If ON - configured documents will need to be uploaded during registration and UIN update.
+If OFF - documents do not need to be uploaded. In this case demographic details will be followed by exception marking and biometric capture.</t>
+  </si>
+  <si>
+    <t>If ON - geo-location of the machine will be validated against the configured registration center location while commencing a registration. 
+If OFF - not validated.
+Reg Processor should not validate the presence of location coordinates in the packet.
+Note: The above process is different from the config setting "Location capture at beginning of day/beginning of registration".</t>
+  </si>
+  <si>
+    <t>If ON - fingerprints will be captured during registration, on-boarding and UIN update and display on preview and acknowledgement pages.
+If OFF - not captured / displayed.</t>
+  </si>
+  <si>
+    <t>If ON - irises will be captured during registration, on-boarding and UIN update and display on preview and acknowledgement pages.
+If OFF - not captured / displayed.</t>
+  </si>
+  <si>
+    <t>If ON - face photo will be captured during registration, on-boarding and UIN update and display on preview and acknowledgement pages.
+If OFF - not captured / displayed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,17 +402,28 @@
       <family val="1"/>
     </font>
     <font>
+      <strike/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +446,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -466,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,13 +695,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,20 +707,35 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,9 +746,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,19 +753,13 @@
   <dxfs count="35">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -620,7 +769,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -631,8 +780,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -667,9 +814,252 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -704,42 +1094,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -997,6 +1354,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Bookman Old Style"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1006,7 +1364,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1017,211 +1375,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1482,38 +1637,38 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Process Name" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Default" dataDxfId="25"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mindtree Comments" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{4064FB18-B8B4-4F88-B59E-183178154059}" name="Customer Comments" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Impact if Updated" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{4064FB18-B8B4-4F88-B59E-183178154059}" name="Customer Comments" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Impact if Updated" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2235" displayName="Table2235" ref="A2:F14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A2:F14" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9DE5F79D-8D5C-4390-8505-0B67612C81D4}" name="Table2235" displayName="Table2235" ref="A2:F15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Process Name" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Mindtree Comments" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{2BF27CC4-C302-46CE-8CD9-2D049CD15DFC}" name="Customer Comments" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Impact if Updated" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{3F729091-F5BA-438B-999C-57AFC44E3974}" name="S.No" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7869D301-4C5A-4329-8CE3-26ED5CAB0A49}" name="Process Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{675BDE3B-762A-478F-8570-76D4E3D82738}" name="Default" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{10C64EF8-4140-4E39-A2EC-3812A990B831}" name="Mindtree Comments" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5579ABFA-BA81-47D0-A78D-6BCA0F7405B9}" name="Configs in Config Server" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{491E88CD-7C42-4423-82A2-938A88A43A2C}" name="Impact if Updated" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2234" displayName="Table2234" ref="A2:F25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A2:F25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2234" displayName="Table2234" ref="A2:F26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A2:F26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Process Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Mindtree Comments" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B1F48FDA-B6DD-46D5-8D35-13386C811A31}" name="Customer Comments" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Impact if Updated" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Stage Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Mindtree Comments" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B1F48FDA-B6DD-46D5-8D35-13386C811A31}" name="Customer Comments" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Impact if Updated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1784,33 +1939,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="24.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1827,10 +1982,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="9" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1841,10 +1996,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="32" t="s">
+        <v>69</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1874,7 +2031,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1885,10 +2042,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1918,18 +2077,18 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -1946,18 +2105,18 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -1974,7 +2133,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -2010,7 +2169,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
@@ -2046,7 +2205,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -2082,7 +2241,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -2118,7 +2277,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -2154,7 +2313,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -2190,7 +2349,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -2226,7 +2385,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -2262,7 +2421,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -2298,7 +2457,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -2334,7 +2493,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
@@ -2370,7 +2529,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="20"/>
@@ -2406,7 +2565,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -2442,7 +2601,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -2478,7 +2637,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -2514,7 +2673,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2550,7 +2709,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -2558,7 +2717,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -2566,7 +2725,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -2574,7 +2733,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -2587,7 +2746,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2595,36 +2754,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA6495-3DA6-4018-8E4B-7EB4103657AD}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2638,27 +2797,31 @@
         <v>4</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2672,21 +2835,25 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2700,21 +2867,23 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2728,21 +2897,25 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2756,21 +2929,25 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+    <row r="7" spans="1:18" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2784,21 +2961,25 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2812,21 +2993,25 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2840,20 +3025,22 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2868,67 +3055,95 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>17</v>
+    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
-        <v>19</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
-        <v>20</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2944,42 +3159,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:F1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -2991,24 +3206,26 @@
         <v>5</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3022,21 +3239,23 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3050,21 +3269,23 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3078,21 +3299,23 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3106,13 +3329,23 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
+    <row r="7" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3126,13 +3359,23 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="21"/>
+    <row r="8" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3146,13 +3389,23 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="21"/>
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -3166,13 +3419,23 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="21"/>
+    <row r="10" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3186,13 +3449,23 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="21"/>
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3206,13 +3479,23 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="21"/>
+    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3226,13 +3509,23 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="21"/>
+    <row r="13" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3246,13 +3539,23 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="21"/>
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3266,7 +3569,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -3286,9 +3589,9 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3306,10 +3609,10 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3326,10 +3629,10 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -3346,7 +3649,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -3366,7 +3669,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -3386,7 +3689,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -3406,15 +3709,27 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -3422,7 +3737,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -3430,13 +3745,21 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3458,27 +3781,27 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="24.140625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="29.5703125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="24.109375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="29.5546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3495,15 +3818,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>6</v>
@@ -3512,12 +3835,12 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>6</v>
@@ -3526,12 +3849,12 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>6</v>
@@ -3540,12 +3863,12 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>6</v>
@@ -3566,12 +3889,12 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>6</v>
@@ -3580,12 +3903,12 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>6</v>
@@ -3594,12 +3917,12 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>6</v>
@@ -3608,12 +3931,12 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -3622,7 +3945,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -3630,7 +3953,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
@@ -3649,15 +3972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -3681,6 +3995,15 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3891,26 +4214,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E7DBB-B725-4DB5-BAAF-AA11D395D2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7632B1-F15B-4283-BF0A-EBC3E7AE1684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -342,12 +342,16 @@
     <t>If ON - face photo will be captured during registration, on-boarding and UIN update and display on preview and acknowledgement pages.
 If OFF - not captured / displayed.</t>
   </si>
+  <si>
+    <t>If ON - Lost UIN feature will be available on the registration client.
+If OFF - will not be available.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +425,16 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
     </font>
   </fonts>
   <fills count="6">
@@ -615,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,6 +759,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1645,8 +1671,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9DE5F79D-8D5C-4390-8505-0B67612C81D4}" name="Table2235" displayName="Table2235" ref="A2:F15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9DE5F79D-8D5C-4390-8505-0B67612C81D4}" name="Table2235" displayName="Table2235" ref="A2:F16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:F16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3F729091-F5BA-438B-999C-57AFC44E3974}" name="S.No" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{7869D301-4C5A-4329-8CE3-26ED5CAB0A49}" name="Process Name" dataDxfId="15"/>
@@ -2755,11 +2781,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA6495-3DA6-4018-8E4B-7EB4103657AD}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3143,6 +3169,22 @@
       </c>
       <c r="F15" s="36" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="47" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3972,41 +4014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4213,32 +4220,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4255,4 +4272,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7632B1-F15B-4283-BF0A-EBC3E7AE1684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E7DBB-B725-4DB5-BAAF-AA11D395D2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -342,16 +342,12 @@
     <t>If ON - face photo will be captured during registration, on-boarding and UIN update and display on preview and acknowledgement pages.
 If OFF - not captured / displayed.</t>
   </si>
-  <si>
-    <t>If ON - Lost UIN feature will be available on the registration client.
-If OFF - will not be available.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,16 +421,6 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Bookman Old Style"/>
     </font>
   </fonts>
   <fills count="6">
@@ -629,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -760,18 +746,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1671,8 +1645,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9DE5F79D-8D5C-4390-8505-0B67612C81D4}" name="Table2235" displayName="Table2235" ref="A2:F16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:F16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9DE5F79D-8D5C-4390-8505-0B67612C81D4}" name="Table2235" displayName="Table2235" ref="A2:F15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3F729091-F5BA-438B-999C-57AFC44E3974}" name="S.No" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{7869D301-4C5A-4329-8CE3-26ED5CAB0A49}" name="Process Name" dataDxfId="15"/>
@@ -2781,11 +2755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA6495-3DA6-4018-8E4B-7EB4103657AD}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3169,22 +3143,6 @@
       </c>
       <c r="F15" s="36" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
-        <v>14</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="47" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4014,6 +3972,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4220,42 +4213,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4272,29 +4255,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/docs/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7632B1-F15B-4283-BF0A-EBC3E7AE1684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB9230A-0CCE-49AF-9D31-ABCEBAAAA2FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Registration" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -147,9 +147,6 @@
     <t>Impact if Updated</t>
   </si>
   <si>
-    <t>Stage Name</t>
-  </si>
-  <si>
     <t>Packet Receiver Stage</t>
   </si>
   <si>
@@ -345,6 +342,48 @@
   <si>
     <t>If ON - Lost UIN feature will be available on the registration client.
 If OFF - will not be available.</t>
+  </si>
+  <si>
+    <t>Validate Schema of ID Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Files is Present in Packet as per Meta Info </t>
+  </si>
+  <si>
+    <t>Validate Check Sum of the Decrypted Packet</t>
+  </si>
+  <si>
+    <t>Validate Applicant Documents</t>
+  </si>
+  <si>
+    <t>Validate Master Data in ID Obejct</t>
+  </si>
+  <si>
+    <t>Stage Name/Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate if Packet was Created on a Holiday during Packet Creation DateTime </t>
+  </si>
+  <si>
+    <t>Configurable using Config Server Properties</t>
+  </si>
+  <si>
+    <t>Impacts ID JSON validation</t>
+  </si>
+  <si>
+    <t>Impacts ID File validation</t>
+  </si>
+  <si>
+    <t>Impacts Check Sum Validation</t>
+  </si>
+  <si>
+    <t>Impacts Document Validation</t>
+  </si>
+  <si>
+    <t>Impacts Master Data Validation</t>
+  </si>
+  <si>
+    <t>Impacts Timestamp Validation</t>
   </si>
 </sst>
 </file>
@@ -629,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -751,6 +790,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,16 +811,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1690,7 +1732,7 @@
   <autoFilter ref="A2:F26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Stage Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Stage Name/Process" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Mindtree Comments" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{B1F48FDA-B6DD-46D5-8D35-13386C811A31}" name="Customer Comments" dataDxfId="1"/>
@@ -1970,28 +2012,28 @@
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="24.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="9" customFormat="1" ht="286" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2026,7 +2068,7 @@
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2057,7 +2099,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2072,7 +2114,7 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2103,7 +2145,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2131,7 +2173,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2159,7 +2201,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -2195,7 +2237,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
@@ -2231,7 +2273,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -2267,7 +2309,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -2303,7 +2345,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -2339,7 +2381,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -2375,7 +2417,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -2411,7 +2453,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -2447,7 +2489,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -2483,7 +2525,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -2519,7 +2561,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
@@ -2555,7 +2597,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="20"/>
@@ -2591,7 +2633,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -2627,7 +2669,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -2663,7 +2705,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -2699,7 +2741,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2735,7 +2777,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -2743,7 +2785,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -2751,7 +2793,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -2759,7 +2801,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -2783,33 +2825,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA6495-3DA6-4018-8E4B-7EB4103657AD}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2823,13 +2865,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -2843,10 +2885,10 @@
         <v>23</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2861,7 +2903,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -2875,10 +2917,10 @@
         <v>24</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2893,12 +2935,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -2908,7 +2950,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2923,12 +2965,12 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -2937,10 +2979,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2955,12 +2997,12 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -2969,10 +3011,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2987,12 +3029,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -3001,10 +3043,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3019,12 +3061,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -3033,10 +3075,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3051,21 +3093,21 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="1"/>
@@ -3081,12 +3123,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="39" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>6</v>
@@ -3096,33 +3138,33 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="104" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>6</v>
@@ -3132,59 +3174,59 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="34">
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="91" x14ac:dyDescent="0.35">
       <c r="A15" s="34">
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="47" t="s">
-        <v>78</v>
+      <c r="F16" s="44" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3203,40 +3245,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="2"/>
+    <col min="2" max="2" width="29.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6328125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -3251,22 +3293,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3281,22 +3323,22 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3311,22 +3353,22 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3341,22 +3383,22 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3371,22 +3413,22 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3401,22 +3443,22 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3431,22 +3473,22 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3461,22 +3503,22 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3491,22 +3533,22 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3521,22 +3563,22 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3551,22 +3593,22 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3581,22 +3623,22 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3611,13 +3653,23 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="21"/>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3631,13 +3683,23 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="21"/>
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3651,13 +3713,23 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="21"/>
+    <row r="17" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3671,13 +3743,23 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3691,13 +3773,23 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="21"/>
+    <row r="19" spans="1:18" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3711,13 +3803,23 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="21"/>
+    <row r="20" spans="1:18" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3731,7 +3833,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -3751,7 +3853,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -3771,7 +3873,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -3779,7 +3881,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -3787,7 +3889,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -3795,7 +3897,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -3808,7 +3910,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3823,27 +3925,27 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="76.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="24.109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="29.5546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="6.90625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="76.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="24.08984375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="29.54296875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3863,7 +3965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3877,7 +3979,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -3891,7 +3993,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -3905,7 +4007,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -3931,7 +4033,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -3945,7 +4047,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -3959,7 +4061,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -3973,7 +4075,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -3987,7 +4089,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -3995,7 +4097,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
@@ -4014,6 +4116,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4220,15 +4331,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4256,6 +4358,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4270,14 +4380,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
